--- a/gestion_factures/uploads/exemple_sabine_factures.xlsx
+++ b/gestion_factures/uploads/exemple_sabine_factures.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sabine/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58088E4-F92D-4344-9D11-0898DD20993D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C06CF6-D58F-0144-BBE1-26F0EC0557F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>Numéro de facture</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>DataCenter</t>
+  </si>
+  <si>
+    <t>20240430-016</t>
+  </si>
+  <si>
+    <t>20240430-017</t>
   </si>
 </sst>
 </file>
@@ -521,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="184" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F16"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -651,11 +657,11 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E16" si="0">D6*0.2</f>
+        <f t="shared" ref="E6:E18" si="0">D6*0.2</f>
         <v>6</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F16" si="1">D6+E6</f>
+        <f t="shared" ref="F6:F18" si="1">D6+E6</f>
         <v>36</v>
       </c>
     </row>
@@ -877,6 +883,50 @@
       <c r="F16">
         <f t="shared" si="1"/>
         <v>220.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45830</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>346</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>69.2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>415.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45841</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>950</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1140</v>
       </c>
     </row>
   </sheetData>
